--- a/Resultados Evaluación/Solicitudes de Cambio/BrailleX-Dev-Sentinels - CR4.xlsx
+++ b/Resultados Evaluación/Solicitudes de Cambio/BrailleX-Dev-Sentinels - CR4.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Resultados Evaluación\Solicitudes de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76212B1C-0FB5-4D82-87F0-A9FB96540BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DDAB09-DD2C-4303-872F-9F5563B0F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="768" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="CR Formato" sheetId="1" r:id="rId1"/>
+    <sheet name="CR" sheetId="1" r:id="rId1"/>
     <sheet name="Documento de Análisis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -148,16 +148,16 @@
     <t>Braille X - Dev-Sentinels</t>
   </si>
   <si>
-    <t>Funcional (Entrada de Braille)</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>Desarrollar un teclado Braille virtual para mejorar la entrada de texto Braille y satisfacer las preferencias de los usuarios que lo requieran.</t>
-  </si>
-  <si>
     <t>BrailleTech</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Mejorar la entendibilidad de los mensajes de error especificando que el texto Braille introducido en el campo de Español no es válido.</t>
   </si>
 </sst>
 </file>
@@ -485,6 +485,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -500,12 +518,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,27 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -888,8 +888,8 @@
     <col min="8" max="8" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8" ht="15">
+    <row r="1" spans="2:8" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:8">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -898,7 +898,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="17.399999999999999">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -917,11 +917,11 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8">
       <c r="B5" s="4"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
@@ -938,11 +938,11 @@
       <c r="G7" s="25"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8">
       <c r="B9" s="4"/>
       <c r="H9" s="7"/>
     </row>
@@ -952,14 +952,14 @@
         <v>23</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" ht="15">
+    <row r="11" spans="2:8">
       <c r="B11" s="4"/>
       <c r="H11" s="7"/>
     </row>
@@ -969,14 +969,14 @@
         <v>3</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" ht="15">
+    <row r="13" spans="2:8">
       <c r="B13" s="4"/>
       <c r="H13" s="7"/>
     </row>
@@ -989,34 +989,34 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="4"/>
-      <c r="C15" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="C15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="4"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="15">
+    <row r="17" spans="2:8">
       <c r="B17" s="4"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="8" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" ht="15">
+    <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>9</v>
@@ -1040,12 +1040,12 @@
         <v>45509</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="15">
+    <row r="20" spans="2:8">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -1056,7 +1056,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" ht="15">
+    <row r="21" spans="2:8">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -1078,7 +1078,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" ht="15">
+    <row r="23" spans="2:8">
       <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -1168,11 +1168,11 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" ht="14.4" thickBot="1">
@@ -1214,8 +1214,8 @@
     <col min="8" max="8" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8" ht="15">
+    <row r="1" spans="2:8" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:8">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1235,7 +1235,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" ht="15">
+    <row r="4" spans="2:8">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>26</v>
@@ -1243,7 +1243,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8">
       <c r="B5" s="4"/>
       <c r="F5" t="s">
         <v>27</v>
@@ -1251,11 +1251,11 @@
       <c r="G5" s="20"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" ht="15">
+    <row r="7" spans="2:8">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>22</v>
@@ -1266,7 +1266,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
@@ -1283,116 +1283,116 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="4"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="4"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="4"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="4"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="15">
+    <row r="15" spans="2:8">
       <c r="B15" s="4"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="15">
+    <row r="17" spans="2:8">
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" ht="15">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" ht="15">
+    <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="15">
+    <row r="20" spans="2:8">
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" ht="15">
+    <row r="21" spans="2:8">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="15">
+    <row r="22" spans="2:8">
       <c r="B22" s="4"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" ht="15">
+    <row r="23" spans="2:8">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>32</v>
@@ -1400,18 +1400,18 @@
       <c r="D23" s="19"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" ht="15">
+    <row r="24" spans="2:8">
       <c r="B24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="15">
+    <row r="25" spans="2:8">
       <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="15">
+    <row r="26" spans="2:8">
       <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>34</v>
@@ -1436,47 +1436,47 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="33"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="33"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="14.4" thickBot="1">
